--- a/data/trans_orig/P29A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P29A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ED169B1-8BAA-44DB-9A61-DDFC2B54E2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51AF1D05-D130-419F-AF4A-E83DFA3D7280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6ED1FCE6-BA78-47B1-8C28-8539AB75710C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D2233CF0-CADE-4F64-AAFC-4C6E84763BEB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="300">
   <si>
     <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2007 (Tasa respuesta: 40,87%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>96,33%</t>
   </si>
   <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
   </si>
   <si>
     <t>90,04%</t>
   </si>
   <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
   </si>
   <si>
     <t>94,68%</t>
   </si>
   <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>3,67%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
   </si>
   <si>
     <t>9,96%</t>
   </si>
   <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
   </si>
   <si>
     <t>5,32%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,463 +140,487 @@
     <t>97,06%</t>
   </si>
   <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
     <t>95,81%</t>
   </si>
   <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 41,29%)</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2015 (Tasa respuesta: 43,49%)</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
     <t>98,06%</t>
   </si>
   <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
   </si>
   <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 41,29%)</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2015 (Tasa respuesta: 43,49%)</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
   </si>
   <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>97,68%</t>
+    <t>97,73%</t>
   </si>
   <si>
     <t>99,75%</t>
@@ -605,7 +629,7 @@
     <t>98,67%</t>
   </si>
   <si>
-    <t>96,32%</t>
+    <t>96,2%</t>
   </si>
   <si>
     <t>99,63%</t>
@@ -614,10 +638,10 @@
     <t>98,95%</t>
   </si>
   <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
   </si>
   <si>
     <t>0,84%</t>
@@ -626,7 +650,7 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>2,32%</t>
+    <t>2,27%</t>
   </si>
   <si>
     <t>1,33%</t>
@@ -635,34 +659,34 @@
     <t>0,37%</t>
   </si>
   <si>
-    <t>3,68%</t>
+    <t>3,8%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
   </si>
   <si>
     <t>98,76%</t>
   </si>
   <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
   </si>
   <si>
     <t>97,17%</t>
   </si>
   <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
   </si>
   <si>
     <t>98,17%</t>
@@ -671,31 +695,31 @@
     <t>97,61%</t>
   </si>
   <si>
-    <t>98,59%</t>
+    <t>98,57%</t>
   </si>
   <si>
     <t>1,24%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
   </si>
   <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
   </si>
   <si>
     <t>1,83%</t>
   </si>
   <si>
-    <t>1,41%</t>
+    <t>1,43%</t>
   </si>
   <si>
     <t>2,39%</t>
@@ -707,211 +731,214 @@
     <t>89,15%</t>
   </si>
   <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
   </si>
   <si>
     <t>57,33%</t>
   </si>
   <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
   </si>
   <si>
     <t>79,23%</t>
   </si>
   <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
   </si>
   <si>
     <t>10,85%</t>
   </si>
   <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
   </si>
   <si>
     <t>42,67%</t>
   </si>
   <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
+    <t>35,66%</t>
   </si>
   <si>
     <t>20,77%</t>
   </si>
   <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
   </si>
   <si>
     <t>79,12%</t>
   </si>
   <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
   </si>
   <si>
     <t>71,34%</t>
   </si>
   <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
   </si>
   <si>
     <t>75,85%</t>
   </si>
   <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
   </si>
   <si>
     <t>20,88%</t>
   </si>
   <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
   </si>
   <si>
     <t>28,66%</t>
   </si>
   <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
   </si>
   <si>
     <t>24,15%</t>
   </si>
   <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
   </si>
   <si>
     <t>83,4%</t>
   </si>
   <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
   </si>
   <si>
     <t>73,78%</t>
   </si>
   <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
   </si>
   <si>
     <t>79,0%</t>
   </si>
   <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
   </si>
   <si>
     <t>16,6%</t>
   </si>
   <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
   </si>
   <si>
     <t>26,22%</t>
   </si>
   <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
   </si>
   <si>
     <t>21,0%</t>
   </si>
   <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
   </si>
   <si>
     <t>81,48%</t>
   </si>
   <si>
-    <t>74,4%</t>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
   </si>
   <si>
     <t>70,66%</t>
   </si>
   <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
   </si>
   <si>
     <t>76,99%</t>
   </si>
   <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
   </si>
   <si>
     <t>18,52%</t>
   </si>
   <si>
-    <t>25,6%</t>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
   </si>
   <si>
     <t>29,34%</t>
   </si>
   <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
   </si>
   <si>
     <t>23,01%</t>
   </si>
   <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D60951-E79A-4A5F-9C31-7BC6AD2C7D1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1AE5F3-68AA-4799-9A11-8E8D7A7E03E3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1933,7 +1960,7 @@
         <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="M13" s="7">
         <v>2550</v>
@@ -1942,7 +1969,7 @@
         <v>2599950</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>75</v>
@@ -1981,10 +2008,10 @@
         <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>111</v>
@@ -1993,7 +2020,7 @@
         <v>113616</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>83</v>
@@ -2074,7 +2101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC18869C-60A5-4BB1-A794-D0255181A755}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413A9638-BDB8-4DA9-8C73-687D356EEEA3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2234,7 +2261,7 @@
         <v>94</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,13 +2276,13 @@
         <v>11106</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -2264,13 +2291,13 @@
         <v>20710</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M5" s="7">
         <v>31</v>
@@ -2279,13 +2306,13 @@
         <v>31816</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,13 +2380,13 @@
         <v>1072590</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="H7" s="7">
         <v>465</v>
@@ -2368,13 +2395,13 @@
         <v>503110</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>1479</v>
@@ -2383,13 +2410,13 @@
         <v>1575701</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,13 +2431,13 @@
         <v>36540</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
         <v>55</v>
@@ -2419,13 +2446,13 @@
         <v>59229</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>89</v>
@@ -2434,13 +2461,13 @@
         <v>95769</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2508,13 +2535,13 @@
         <v>303655</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
         <v>182</v>
@@ -2523,13 +2550,13 @@
         <v>201915</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>465</v>
@@ -2538,13 +2565,13 @@
         <v>505570</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2559,13 +2586,13 @@
         <v>6890</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -2574,13 +2601,13 @@
         <v>8895</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>15</v>
@@ -2589,13 +2616,13 @@
         <v>15785</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,13 +2690,13 @@
         <v>1832166</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
         <v>822</v>
@@ -2678,13 +2705,13 @@
         <v>894904</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="M13" s="7">
         <v>2546</v>
@@ -2693,13 +2720,13 @@
         <v>2727069</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2714,13 +2741,13 @@
         <v>54536</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H14" s="7">
         <v>83</v>
@@ -2729,13 +2756,13 @@
         <v>88834</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="M14" s="7">
         <v>135</v>
@@ -2744,13 +2771,13 @@
         <v>143370</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2825,7 +2852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B44C22-FF0D-44AF-84CA-32D19B660DE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDDC7C1B-305A-427F-BA3A-739A9D9AB82A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2842,7 +2869,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2949,13 +2976,13 @@
         <v>331932</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H4" s="7">
         <v>118</v>
@@ -2964,13 +2991,13 @@
         <v>125353</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="M4" s="7">
         <v>448</v>
@@ -2979,13 +3006,13 @@
         <v>457286</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,13 +3027,13 @@
         <v>5780</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -3015,13 +3042,13 @@
         <v>5555</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -3030,13 +3057,13 @@
         <v>11335</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,13 +3131,13 @@
         <v>1180396</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H7" s="7">
         <v>656</v>
@@ -3119,13 +3146,13 @@
         <v>681184</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="M7" s="7">
         <v>1767</v>
@@ -3134,13 +3161,13 @@
         <v>1861579</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>180</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,13 +3182,13 @@
         <v>14710</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>22</v>
@@ -3170,13 +3197,13 @@
         <v>22077</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="M8" s="7">
         <v>36</v>
@@ -3185,13 +3212,13 @@
         <v>36788</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,13 +3286,13 @@
         <v>355978</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>251</v>
@@ -3274,13 +3301,13 @@
         <v>263408</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>577</v>
@@ -3289,13 +3316,13 @@
         <v>619386</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,13 +3337,13 @@
         <v>3008</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -3325,13 +3352,13 @@
         <v>3562</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -3340,13 +3367,13 @@
         <v>6570</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,13 +3441,13 @@
         <v>1868306</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="H13" s="7">
         <v>1025</v>
@@ -3429,13 +3456,13 @@
         <v>1069946</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="M13" s="7">
         <v>2792</v>
@@ -3444,13 +3471,13 @@
         <v>2938252</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,13 +3492,13 @@
         <v>23498</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -3480,13 +3507,13 @@
         <v>31194</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>53</v>
@@ -3495,13 +3522,13 @@
         <v>54692</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,7 +3603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FD27A0-F43F-47F0-9FF5-2F3D6363BAF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FF707D-C12C-48F8-B0E5-CC1AEBF2CD9A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3593,7 +3620,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3700,13 +3727,13 @@
         <v>255445</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>123</v>
@@ -3715,13 +3742,13 @@
         <v>74419</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>438</v>
@@ -3730,13 +3757,13 @@
         <v>329864</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,13 +3778,13 @@
         <v>31087</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="H5" s="7">
         <v>84</v>
@@ -3766,13 +3793,13 @@
         <v>55400</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M5" s="7">
         <v>114</v>
@@ -3781,13 +3808,13 @@
         <v>86486</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,13 +3882,13 @@
         <v>1005885</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="H7" s="7">
         <v>720</v>
@@ -3870,13 +3897,13 @@
         <v>656978</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="M7" s="7">
         <v>1638</v>
@@ -3885,13 +3912,13 @@
         <v>1662864</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,13 +3933,13 @@
         <v>265519</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="H8" s="7">
         <v>319</v>
@@ -3921,13 +3948,13 @@
         <v>263922</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
         <v>513</v>
@@ -3936,13 +3963,13 @@
         <v>529440</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,13 +4037,13 @@
         <v>350586</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="H10" s="7">
         <v>359</v>
@@ -4025,13 +4052,13 @@
         <v>261738</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="M10" s="7">
         <v>706</v>
@@ -4040,13 +4067,13 @@
         <v>612324</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4088,13 @@
         <v>69797</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="H11" s="7">
         <v>114</v>
@@ -4076,13 +4103,13 @@
         <v>93014</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="M11" s="7">
         <v>182</v>
@@ -4091,13 +4118,13 @@
         <v>162812</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,13 +4192,13 @@
         <v>1611916</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="H13" s="7">
         <v>1202</v>
@@ -4180,13 +4207,13 @@
         <v>993135</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="M13" s="7">
         <v>2782</v>
@@ -4195,13 +4222,13 @@
         <v>2605052</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,13 +4243,13 @@
         <v>366403</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>26</v>
+        <v>292</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="H14" s="7">
         <v>517</v>
@@ -4231,13 +4258,13 @@
         <v>412336</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="M14" s="7">
         <v>809</v>
@@ -4246,13 +4273,13 @@
         <v>778738</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P29A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P29A-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51AF1D05-D130-419F-AF4A-E83DFA3D7280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1677B3F3-80A3-49FD-BD35-7E504F8B21B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D2233CF0-CADE-4F64-AAFC-4C6E84763BEB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A7A17FAC-AD43-449D-AEF3-551395BC51BF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="292">
   <si>
     <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2007 (Tasa respuesta: 40,87%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>96,33%</t>
   </si>
   <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
   </si>
   <si>
     <t>90,04%</t>
   </si>
   <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
   </si>
   <si>
     <t>94,68%</t>
   </si>
   <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>3,67%</t>
   </si>
   <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
   </si>
   <si>
     <t>9,96%</t>
   </si>
   <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
   </si>
   <si>
     <t>5,32%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,460 +140,451 @@
     <t>97,06%</t>
   </si>
   <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 41,29%)</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
     <t>95,83%</t>
   </si>
   <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
   </si>
   <si>
     <t>4,17%</t>
   </si>
   <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 41,29%)</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2015 (Tasa respuesta: 43,49%)</t>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2016 (Tasa respuesta: 43,49%)</t>
   </si>
   <si>
     <t>98,29%</t>
   </si>
   <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
   </si>
   <si>
     <t>95,76%</t>
   </si>
   <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
   </si>
   <si>
     <t>97,58%</t>
   </si>
   <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
   </si>
   <si>
     <t>1,71%</t>
   </si>
   <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
   </si>
   <si>
     <t>4,24%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
   </si>
   <si>
     <t>2,42%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
   </si>
   <si>
     <t>98,0%</t>
   </si>
   <si>
-    <t>99,33%</t>
+    <t>99,32%</t>
   </si>
   <si>
     <t>96,86%</t>
   </si>
   <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
+    <t>97,98%</t>
   </si>
   <si>
     <t>98,06%</t>
   </si>
   <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
   </si>
   <si>
     <t>2,0%</t>
@@ -602,25 +593,22 @@
     <t>3,14%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
+    <t>2,02%</t>
   </si>
   <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
   </si>
   <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>97,73%</t>
+    <t>97,81%</t>
   </si>
   <si>
     <t>99,75%</t>
@@ -629,7 +617,7 @@
     <t>98,67%</t>
   </si>
   <si>
-    <t>96,2%</t>
+    <t>96,11%</t>
   </si>
   <si>
     <t>99,63%</t>
@@ -638,10 +626,10 @@
     <t>98,95%</t>
   </si>
   <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
   </si>
   <si>
     <t>0,84%</t>
@@ -650,7 +638,7 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>2,27%</t>
+    <t>2,19%</t>
   </si>
   <si>
     <t>1,33%</t>
@@ -659,70 +647,58 @@
     <t>0,37%</t>
   </si>
   <si>
-    <t>3,8%</t>
+    <t>3,89%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
   </si>
   <si>
     <t>98,76%</t>
   </si>
   <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
   </si>
   <si>
     <t>98,17%</t>
   </si>
   <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
   </si>
   <si>
     <t>1,24%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
   </si>
   <si>
     <t>1,83%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
   </si>
   <si>
     <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 41,21%)</t>
@@ -1350,7 +1326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1AE5F3-68AA-4799-9A11-8E8D7A7E03E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9741B7F5-B7C7-4A18-8359-D2087DFCF3F3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1960,7 +1936,7 @@
         <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>2550</v>
@@ -1969,13 +1945,13 @@
         <v>2599950</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1990,13 +1966,13 @@
         <v>60869</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>52</v>
@@ -2005,13 +1981,13 @@
         <v>52747</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>111</v>
@@ -2020,13 +1996,13 @@
         <v>113616</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2082,7 +2058,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2101,7 +2077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413A9638-BDB8-4DA9-8C73-687D356EEEA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C408D79E-27E1-4339-9358-99140C9E75FE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2118,7 +2094,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2225,13 +2201,13 @@
         <v>455921</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>175</v>
@@ -2240,13 +2216,13 @@
         <v>189878</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>602</v>
@@ -2255,13 +2231,13 @@
         <v>645799</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>94</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2276,13 +2252,13 @@
         <v>11106</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -2291,13 +2267,13 @@
         <v>20710</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M5" s="7">
         <v>31</v>
@@ -2306,13 +2282,13 @@
         <v>31816</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2380,13 +2356,13 @@
         <v>1072590</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H7" s="7">
         <v>465</v>
@@ -2395,13 +2371,13 @@
         <v>503110</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>1479</v>
@@ -2410,13 +2386,13 @@
         <v>1575701</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2431,13 +2407,13 @@
         <v>36540</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H8" s="7">
         <v>55</v>
@@ -2446,13 +2422,13 @@
         <v>59229</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>89</v>
@@ -2461,13 +2437,13 @@
         <v>95769</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,13 +2511,13 @@
         <v>303655</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H10" s="7">
         <v>182</v>
@@ -2550,13 +2526,13 @@
         <v>201915</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M10" s="7">
         <v>465</v>
@@ -2565,13 +2541,13 @@
         <v>505570</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,13 +2562,13 @@
         <v>6890</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -2601,13 +2577,13 @@
         <v>8895</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M11" s="7">
         <v>15</v>
@@ -2616,13 +2592,13 @@
         <v>15785</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,13 +2666,13 @@
         <v>1832166</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="H13" s="7">
         <v>822</v>
@@ -2705,28 +2681,28 @@
         <v>894904</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>2546</v>
       </c>
       <c r="N13" s="7">
-        <v>2727069</v>
+        <v>2727070</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,13 +2717,13 @@
         <v>54536</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H14" s="7">
         <v>83</v>
@@ -2756,13 +2732,13 @@
         <v>88834</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M14" s="7">
         <v>135</v>
@@ -2771,10 +2747,10 @@
         <v>143370</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>154</v>
@@ -2819,7 +2795,7 @@
         <v>2681</v>
       </c>
       <c r="N15" s="7">
-        <v>2870439</v>
+        <v>2870440</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2833,7 +2809,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2852,7 +2828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDDC7C1B-305A-427F-BA3A-739A9D9AB82A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D905F8-3021-4AC3-8A38-DA8FA2543B94}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3131,13 +3107,13 @@
         <v>1180396</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H7" s="7">
         <v>656</v>
@@ -3146,13 +3122,13 @@
         <v>681184</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M7" s="7">
         <v>1767</v>
@@ -3161,13 +3137,13 @@
         <v>1861579</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3182,13 +3158,13 @@
         <v>14710</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H8" s="7">
         <v>22</v>
@@ -3197,13 +3173,13 @@
         <v>22077</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="M8" s="7">
         <v>36</v>
@@ -3212,13 +3188,13 @@
         <v>36788</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,13 +3262,13 @@
         <v>355978</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H10" s="7">
         <v>251</v>
@@ -3301,13 +3277,13 @@
         <v>263408</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M10" s="7">
         <v>577</v>
@@ -3316,13 +3292,13 @@
         <v>619386</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,13 +3313,13 @@
         <v>3008</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -3352,13 +3328,13 @@
         <v>3562</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -3367,13 +3343,13 @@
         <v>6570</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3441,13 +3417,13 @@
         <v>1868306</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>1025</v>
@@ -3456,13 +3432,13 @@
         <v>1069946</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>213</v>
+        <v>59</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="M13" s="7">
         <v>2792</v>
@@ -3471,13 +3447,13 @@
         <v>2938252</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3492,13 +3468,13 @@
         <v>23498</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -3507,13 +3483,13 @@
         <v>31194</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>222</v>
+        <v>67</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="M14" s="7">
         <v>53</v>
@@ -3522,13 +3498,13 @@
         <v>54692</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,7 +3560,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3603,7 +3579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FF707D-C12C-48F8-B0E5-CC1AEBF2CD9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4FF6FD-4123-40B6-8650-D7858EE61957}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3620,7 +3596,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3727,13 +3703,13 @@
         <v>255445</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H4" s="7">
         <v>123</v>
@@ -3742,13 +3718,13 @@
         <v>74419</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="M4" s="7">
         <v>438</v>
@@ -3757,13 +3733,13 @@
         <v>329864</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,13 +3754,13 @@
         <v>31087</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="H5" s="7">
         <v>84</v>
@@ -3793,13 +3769,13 @@
         <v>55400</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="M5" s="7">
         <v>114</v>
@@ -3808,13 +3784,13 @@
         <v>86486</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,13 +3858,13 @@
         <v>1005885</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="H7" s="7">
         <v>720</v>
@@ -3897,13 +3873,13 @@
         <v>656978</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="M7" s="7">
         <v>1638</v>
@@ -3912,13 +3888,13 @@
         <v>1662864</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,13 +3909,13 @@
         <v>265519</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="H8" s="7">
         <v>319</v>
@@ -3948,13 +3924,13 @@
         <v>263922</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="M8" s="7">
         <v>513</v>
@@ -3963,13 +3939,13 @@
         <v>529440</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,13 +4013,13 @@
         <v>350586</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="H10" s="7">
         <v>359</v>
@@ -4052,13 +4028,13 @@
         <v>261738</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M10" s="7">
         <v>706</v>
@@ -4067,13 +4043,13 @@
         <v>612324</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,13 +4064,13 @@
         <v>69797</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H11" s="7">
         <v>114</v>
@@ -4103,13 +4079,13 @@
         <v>93014</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="M11" s="7">
         <v>182</v>
@@ -4118,13 +4094,13 @@
         <v>162812</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,13 +4168,13 @@
         <v>1611916</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="H13" s="7">
         <v>1202</v>
@@ -4207,13 +4183,13 @@
         <v>993135</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="M13" s="7">
         <v>2782</v>
@@ -4222,13 +4198,13 @@
         <v>2605052</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,13 +4219,13 @@
         <v>366403</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="H14" s="7">
         <v>517</v>
@@ -4258,13 +4234,13 @@
         <v>412336</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="M14" s="7">
         <v>809</v>
@@ -4273,13 +4249,13 @@
         <v>778738</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,7 +4311,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P29A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P29A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1677B3F3-80A3-49FD-BD35-7E504F8B21B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36C6A9A1-780C-4B7C-880E-FF623DE2C028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A7A17FAC-AD43-449D-AEF3-551395BC51BF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{774D18C1-5C89-49B6-9522-AFE747CF0303}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="292">
-  <si>
-    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2007 (Tasa respuesta: 40,87%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="291">
+  <si>
+    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2007 (Tasa respuesta: 99,08%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -71,64 +71,64 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,784 +137,781 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 41,29%)</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2016 (Tasa respuesta: 43,49%)</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 41,21%)</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
+    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 96,83%)</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2016 (Tasa respuesta: 97,69%)</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 99,73%)</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
   </si>
   <si>
     <t>73,78%</t>
   </si>
   <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9741B7F5-B7C7-4A18-8359-D2087DFCF3F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91444846-3EA1-4AC7-BB8A-0C0C849148B0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1477,7 +1474,7 @@
         <v>591</v>
       </c>
       <c r="N4" s="7">
-        <v>591748</v>
+        <v>591747</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1495,10 +1492,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>17</v>
+        <v>582</v>
       </c>
       <c r="D5" s="7">
-        <v>16885</v>
+        <v>577615</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1510,10 +1507,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>16</v>
+        <v>1142</v>
       </c>
       <c r="I5" s="7">
-        <v>16366</v>
+        <v>1163944</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1525,10 +1522,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>33</v>
+        <v>1724</v>
       </c>
       <c r="N5" s="7">
-        <v>33251</v>
+        <v>1741559</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1546,10 +1543,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>462</v>
+        <v>1027</v>
       </c>
       <c r="D6" s="7">
-        <v>460607</v>
+        <v>1021337</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1561,10 +1558,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>162</v>
+        <v>1288</v>
       </c>
       <c r="I6" s="7">
-        <v>164391</v>
+        <v>1311969</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1576,10 +1573,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>624</v>
+        <v>2315</v>
       </c>
       <c r="N6" s="7">
-        <v>624999</v>
+        <v>2333306</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1650,10 +1647,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>30</v>
+        <v>644</v>
       </c>
       <c r="D8" s="7">
-        <v>30382</v>
+        <v>664391</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1665,10 +1662,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>26</v>
+        <v>1056</v>
       </c>
       <c r="I8" s="7">
-        <v>25698</v>
+        <v>1079518</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1680,10 +1677,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>56</v>
+        <v>1700</v>
       </c>
       <c r="N8" s="7">
-        <v>56080</v>
+        <v>1743908</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1701,10 +1698,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>1012</v>
+        <v>1626</v>
       </c>
       <c r="D9" s="7">
-        <v>1034539</v>
+        <v>1668548</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1716,10 +1713,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>510</v>
+        <v>1540</v>
       </c>
       <c r="I9" s="7">
-        <v>519109</v>
+        <v>1572929</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1731,10 +1728,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1522</v>
+        <v>3166</v>
       </c>
       <c r="N9" s="7">
-        <v>1553648</v>
+        <v>3241476</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1772,7 +1769,7 @@
         <v>175</v>
       </c>
       <c r="I10" s="7">
-        <v>182420</v>
+        <v>182419</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1805,10 +1802,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="D11" s="7">
-        <v>13602</v>
+        <v>214503</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1820,10 +1817,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>10</v>
+        <v>276</v>
       </c>
       <c r="I11" s="7">
-        <v>10682</v>
+        <v>292962</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1835,10 +1832,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>22</v>
+        <v>477</v>
       </c>
       <c r="N11" s="7">
-        <v>24284</v>
+        <v>507465</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1856,10 +1853,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>330</v>
+        <v>519</v>
       </c>
       <c r="D12" s="7">
-        <v>341818</v>
+        <v>542719</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1871,10 +1868,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>185</v>
+        <v>451</v>
       </c>
       <c r="I12" s="7">
-        <v>193102</v>
+        <v>475381</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1886,10 +1883,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>515</v>
+        <v>970</v>
       </c>
       <c r="N12" s="7">
-        <v>534919</v>
+        <v>1018100</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1960,10 +1957,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>59</v>
+        <v>1427</v>
       </c>
       <c r="D14" s="7">
-        <v>60869</v>
+        <v>1456509</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1975,10 +1972,10 @@
         <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>52</v>
+        <v>2474</v>
       </c>
       <c r="I14" s="7">
-        <v>52747</v>
+        <v>2536424</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -1990,10 +1987,10 @@
         <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>111</v>
+        <v>3901</v>
       </c>
       <c r="N14" s="7">
-        <v>113616</v>
+        <v>3992932</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2011,10 +2008,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>1804</v>
+        <v>3172</v>
       </c>
       <c r="D15" s="7">
-        <v>1836964</v>
+        <v>3232604</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2026,10 +2023,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>857</v>
+        <v>3279</v>
       </c>
       <c r="I15" s="7">
-        <v>876602</v>
+        <v>3360279</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2041,10 +2038,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>2661</v>
+        <v>6451</v>
       </c>
       <c r="N15" s="7">
-        <v>2713566</v>
+        <v>6592882</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2077,7 +2074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C408D79E-27E1-4339-9358-99140C9E75FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7D2624-A622-4090-A7F3-8D5B0111E086}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2213,7 +2210,7 @@
         <v>175</v>
       </c>
       <c r="I4" s="7">
-        <v>189878</v>
+        <v>189879</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>92</v>
@@ -2228,16 +2225,16 @@
         <v>602</v>
       </c>
       <c r="N4" s="7">
-        <v>645799</v>
+        <v>645800</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,49 +2243,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>11</v>
+        <v>440</v>
       </c>
       <c r="D5" s="7">
-        <v>11106</v>
+        <v>474131</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>20</v>
+        <v>1052</v>
       </c>
       <c r="I5" s="7">
-        <v>20710</v>
+        <v>1126293</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
-        <v>31</v>
+        <v>1492</v>
       </c>
       <c r="N5" s="7">
-        <v>31816</v>
+        <v>1600424</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2297,10 +2294,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>438</v>
+        <v>867</v>
       </c>
       <c r="D6" s="7">
-        <v>467027</v>
+        <v>930052</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2312,10 +2309,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>195</v>
+        <v>1227</v>
       </c>
       <c r="I6" s="7">
-        <v>210588</v>
+        <v>1316172</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2327,10 +2324,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>633</v>
+        <v>2094</v>
       </c>
       <c r="N6" s="7">
-        <v>677615</v>
+        <v>2246224</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2356,13 +2353,13 @@
         <v>1072590</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>465</v>
@@ -2371,28 +2368,28 @@
         <v>503110</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>1479</v>
       </c>
       <c r="N7" s="7">
-        <v>1575701</v>
+        <v>1575700</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,49 +2398,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>34</v>
+        <v>757</v>
       </c>
       <c r="D8" s="7">
-        <v>36540</v>
+        <v>799406</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
-        <v>55</v>
+        <v>1138</v>
       </c>
       <c r="I8" s="7">
-        <v>59229</v>
+        <v>1218948</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
-        <v>89</v>
+        <v>1895</v>
       </c>
       <c r="N8" s="7">
-        <v>95769</v>
+        <v>2018354</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2452,10 +2449,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>1048</v>
+        <v>1771</v>
       </c>
       <c r="D9" s="7">
-        <v>1109130</v>
+        <v>1871996</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2467,10 +2464,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>520</v>
+        <v>1603</v>
       </c>
       <c r="I9" s="7">
-        <v>562339</v>
+        <v>1722058</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2482,10 +2479,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1568</v>
+        <v>3374</v>
       </c>
       <c r="N9" s="7">
-        <v>1671470</v>
+        <v>3594054</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2508,16 +2505,16 @@
         <v>283</v>
       </c>
       <c r="D10" s="7">
-        <v>303655</v>
+        <v>303654</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>182</v>
@@ -2526,13 +2523,13 @@
         <v>201915</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>465</v>
@@ -2541,13 +2538,13 @@
         <v>505570</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,49 +2553,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="D11" s="7">
-        <v>6890</v>
+        <v>161876</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
-        <v>8</v>
+        <v>217</v>
       </c>
       <c r="I11" s="7">
-        <v>8895</v>
+        <v>241917</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
-        <v>15</v>
+        <v>357</v>
       </c>
       <c r="N11" s="7">
-        <v>15785</v>
+        <v>403793</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2607,10 +2604,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>290</v>
+        <v>423</v>
       </c>
       <c r="D12" s="7">
-        <v>310545</v>
+        <v>465530</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2622,10 +2619,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>190</v>
+        <v>399</v>
       </c>
       <c r="I12" s="7">
-        <v>210810</v>
+        <v>443832</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2637,10 +2634,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>480</v>
+        <v>822</v>
       </c>
       <c r="N12" s="7">
-        <v>521355</v>
+        <v>909363</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2663,16 +2660,16 @@
         <v>1724</v>
       </c>
       <c r="D13" s="7">
-        <v>1832166</v>
+        <v>1832165</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>822</v>
@@ -2681,28 +2678,28 @@
         <v>894904</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>2546</v>
       </c>
       <c r="N13" s="7">
-        <v>2727070</v>
+        <v>2727069</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,49 +2708,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>52</v>
+        <v>1337</v>
       </c>
       <c r="D14" s="7">
-        <v>54536</v>
+        <v>1435413</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
-        <v>83</v>
+        <v>2407</v>
       </c>
       <c r="I14" s="7">
-        <v>88834</v>
+        <v>2587158</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
-        <v>135</v>
+        <v>3744</v>
       </c>
       <c r="N14" s="7">
-        <v>143370</v>
+        <v>4022571</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,10 +2759,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>1776</v>
+        <v>3061</v>
       </c>
       <c r="D15" s="7">
-        <v>1886702</v>
+        <v>3267578</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2777,10 +2774,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>905</v>
+        <v>3229</v>
       </c>
       <c r="I15" s="7">
-        <v>983738</v>
+        <v>3482062</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2792,10 +2789,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>2681</v>
+        <v>6290</v>
       </c>
       <c r="N15" s="7">
-        <v>2870440</v>
+        <v>6749640</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2828,7 +2825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D905F8-3021-4AC3-8A38-DA8FA2543B94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF4A0CF-5991-400C-9124-AEDF80A7C6D7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2845,7 +2842,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2952,13 +2949,13 @@
         <v>331932</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>118</v>
@@ -2967,13 +2964,13 @@
         <v>125353</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>448</v>
@@ -2982,13 +2979,13 @@
         <v>457286</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2997,49 +2994,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>408</v>
       </c>
       <c r="D5" s="7">
-        <v>5780</v>
+        <v>399251</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>764</v>
       </c>
       <c r="I5" s="7">
-        <v>5555</v>
+        <v>858268</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M5" s="7">
-        <v>11</v>
+        <v>1172</v>
       </c>
       <c r="N5" s="7">
-        <v>11335</v>
+        <v>1257518</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3048,10 +3045,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>336</v>
+        <v>738</v>
       </c>
       <c r="D6" s="7">
-        <v>337712</v>
+        <v>731183</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3063,10 +3060,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>123</v>
+        <v>882</v>
       </c>
       <c r="I6" s="7">
-        <v>130908</v>
+        <v>983621</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3078,10 +3075,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>459</v>
+        <v>1620</v>
       </c>
       <c r="N6" s="7">
-        <v>468621</v>
+        <v>1714804</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3104,16 +3101,16 @@
         <v>1111</v>
       </c>
       <c r="D7" s="7">
-        <v>1180396</v>
+        <v>1180395</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7">
         <v>656</v>
@@ -3122,28 +3119,28 @@
         <v>681184</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>1767</v>
       </c>
       <c r="N7" s="7">
-        <v>1861579</v>
+        <v>1861580</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,49 +3149,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>14</v>
+        <v>781</v>
       </c>
       <c r="D8" s="7">
-        <v>14710</v>
+        <v>832783</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
-        <v>22</v>
+        <v>1227</v>
       </c>
       <c r="I8" s="7">
-        <v>22077</v>
+        <v>1280800</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>82</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
-        <v>36</v>
+        <v>2008</v>
       </c>
       <c r="N8" s="7">
-        <v>36788</v>
+        <v>2113582</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,10 +3200,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>1125</v>
+        <v>1892</v>
       </c>
       <c r="D9" s="7">
-        <v>1195106</v>
+        <v>2013178</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3218,10 +3215,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>678</v>
+        <v>1883</v>
       </c>
       <c r="I9" s="7">
-        <v>703261</v>
+        <v>1961984</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3233,10 +3230,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1803</v>
+        <v>3775</v>
       </c>
       <c r="N9" s="7">
-        <v>1898367</v>
+        <v>3975162</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3262,13 +3259,13 @@
         <v>355978</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>251</v>
@@ -3277,28 +3274,28 @@
         <v>263408</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>577</v>
       </c>
       <c r="N10" s="7">
-        <v>619386</v>
+        <v>619387</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3307,49 +3304,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>158</v>
       </c>
       <c r="D11" s="7">
-        <v>3008</v>
+        <v>170474</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>259</v>
       </c>
       <c r="I11" s="7">
-        <v>3562</v>
+        <v>266609</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>202</v>
-      </c>
       <c r="M11" s="7">
-        <v>6</v>
+        <v>417</v>
       </c>
       <c r="N11" s="7">
-        <v>6570</v>
+        <v>437083</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>205</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,10 +3355,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>329</v>
+        <v>484</v>
       </c>
       <c r="D12" s="7">
-        <v>358986</v>
+        <v>526452</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3373,10 +3370,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>254</v>
+        <v>510</v>
       </c>
       <c r="I12" s="7">
-        <v>266970</v>
+        <v>530017</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3388,10 +3385,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>583</v>
+        <v>994</v>
       </c>
       <c r="N12" s="7">
-        <v>625956</v>
+        <v>1056470</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3417,28 +3414,28 @@
         <v>1868306</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>1025</v>
       </c>
       <c r="I13" s="7">
-        <v>1069946</v>
+        <v>1069945</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>2792</v>
@@ -3447,13 +3444,13 @@
         <v>2938252</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,49 +3459,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>23</v>
+        <v>1347</v>
       </c>
       <c r="D14" s="7">
-        <v>23498</v>
+        <v>1402508</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
-        <v>30</v>
+        <v>2250</v>
       </c>
       <c r="I14" s="7">
-        <v>31194</v>
+        <v>2405677</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>67</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
-        <v>53</v>
+        <v>3597</v>
       </c>
       <c r="N14" s="7">
-        <v>54692</v>
+        <v>3808184</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,10 +3510,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>1790</v>
+        <v>3114</v>
       </c>
       <c r="D15" s="7">
-        <v>1891804</v>
+        <v>3270814</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3528,10 +3525,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1055</v>
+        <v>3275</v>
       </c>
       <c r="I15" s="7">
-        <v>1101140</v>
+        <v>3475622</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3543,10 +3540,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>2845</v>
+        <v>6389</v>
       </c>
       <c r="N15" s="7">
-        <v>2992944</v>
+        <v>6746436</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3579,7 +3576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4FF6FD-4123-40B6-8650-D7858EE61957}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F28614A-A675-44FD-AEBA-41E3FEDDA832}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3596,7 +3593,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3703,13 +3700,13 @@
         <v>255445</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>123</v>
@@ -3718,13 +3715,13 @@
         <v>74419</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>438</v>
@@ -3733,13 +3730,13 @@
         <v>329864</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,49 +3745,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>374</v>
       </c>
       <c r="D5" s="7">
-        <v>31087</v>
+        <v>283923</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="H5" s="7">
-        <v>84</v>
+        <v>1300</v>
       </c>
       <c r="I5" s="7">
-        <v>55400</v>
+        <v>756773</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
-        <v>114</v>
+        <v>1674</v>
       </c>
       <c r="N5" s="7">
-        <v>86486</v>
+        <v>1040697</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,10 +3796,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>345</v>
+        <v>689</v>
       </c>
       <c r="D6" s="7">
-        <v>286532</v>
+        <v>539368</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3814,10 +3811,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>207</v>
+        <v>1423</v>
       </c>
       <c r="I6" s="7">
-        <v>129819</v>
+        <v>831192</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3829,10 +3826,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>552</v>
+        <v>2112</v>
       </c>
       <c r="N6" s="7">
-        <v>416350</v>
+        <v>1370561</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3858,13 +3855,13 @@
         <v>1005885</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
         <v>720</v>
@@ -3873,13 +3870,13 @@
         <v>656978</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>1638</v>
@@ -3888,13 +3885,13 @@
         <v>1662864</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>244</v>
+        <v>42</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,49 +3900,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>194</v>
+        <v>1069</v>
       </c>
       <c r="D8" s="7">
-        <v>265519</v>
+        <v>1151496</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="H8" s="7">
-        <v>319</v>
+        <v>2195</v>
       </c>
       <c r="I8" s="7">
-        <v>263922</v>
+        <v>1588659</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="M8" s="7">
-        <v>513</v>
+        <v>3264</v>
       </c>
       <c r="N8" s="7">
-        <v>529440</v>
+        <v>2740154</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>253</v>
+        <v>34</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,10 +3951,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>1112</v>
+        <v>1987</v>
       </c>
       <c r="D9" s="7">
-        <v>1271404</v>
+        <v>2157381</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3969,10 +3966,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>1039</v>
+        <v>2915</v>
       </c>
       <c r="I9" s="7">
-        <v>920900</v>
+        <v>2245637</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3984,10 +3981,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>2151</v>
+        <v>4902</v>
       </c>
       <c r="N9" s="7">
-        <v>2192304</v>
+        <v>4403018</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4013,13 +4010,13 @@
         <v>350586</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>258</v>
+        <v>21</v>
       </c>
       <c r="H10" s="7">
         <v>359</v>
@@ -4028,13 +4025,13 @@
         <v>261738</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>260</v>
+        <v>37</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M10" s="7">
         <v>706</v>
@@ -4043,13 +4040,13 @@
         <v>612324</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>264</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,49 +4055,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>68</v>
+        <v>334</v>
       </c>
       <c r="D11" s="7">
-        <v>69797</v>
+        <v>322453</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>266</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H11" s="7">
-        <v>114</v>
+        <v>642</v>
       </c>
       <c r="I11" s="7">
-        <v>93014</v>
+        <v>449560</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>270</v>
+        <v>45</v>
       </c>
       <c r="M11" s="7">
-        <v>182</v>
+        <v>976</v>
       </c>
       <c r="N11" s="7">
-        <v>162812</v>
+        <v>772013</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>271</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,10 +4106,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>415</v>
+        <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>420383</v>
+        <v>673039</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4124,10 +4121,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>473</v>
+        <v>1001</v>
       </c>
       <c r="I12" s="7">
-        <v>354752</v>
+        <v>711298</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4139,10 +4136,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>888</v>
+        <v>1682</v>
       </c>
       <c r="N12" s="7">
-        <v>775136</v>
+        <v>1384337</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4168,13 +4165,13 @@
         <v>1611916</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H13" s="7">
         <v>1202</v>
@@ -4183,13 +4180,13 @@
         <v>993135</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M13" s="7">
         <v>2782</v>
@@ -4198,13 +4195,13 @@
         <v>2605052</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,49 +4210,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>292</v>
+        <v>1777</v>
       </c>
       <c r="D14" s="7">
-        <v>366403</v>
+        <v>1757872</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>4137</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2794992</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="H14" s="7">
-        <v>517</v>
-      </c>
-      <c r="I14" s="7">
-        <v>412336</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>5914</v>
+      </c>
+      <c r="N14" s="7">
+        <v>4552864</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="M14" s="7">
-        <v>809</v>
-      </c>
-      <c r="N14" s="7">
-        <v>778738</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,10 +4261,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>1872</v>
+        <v>3357</v>
       </c>
       <c r="D15" s="7">
-        <v>1978319</v>
+        <v>3369788</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4279,10 +4276,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1719</v>
+        <v>5339</v>
       </c>
       <c r="I15" s="7">
-        <v>1405471</v>
+        <v>3788127</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4294,10 +4291,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>3591</v>
+        <v>8696</v>
       </c>
       <c r="N15" s="7">
-        <v>3383790</v>
+        <v>7157916</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P29A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P29A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36C6A9A1-780C-4B7C-880E-FF623DE2C028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEB24204-06B1-4A63-A8BF-8C59CAEFD6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{774D18C1-5C89-49B6-9522-AFE747CF0303}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F092765A-543E-40FE-8F6C-964690980472}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
   <si>
     <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2007 (Tasa respuesta: 99,08%)</t>
   </si>
@@ -722,196 +722,214 @@
     <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 99,73%)</t>
   </si>
   <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
   </si>
   <si>
     <t>7,42%</t>
   </si>
   <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
   </si>
   <si>
     <t>92,58%</t>
   </si>
   <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91444846-3EA1-4AC7-BB8A-0C0C849148B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82CF6D01-7CB6-4317-984B-7E33F3369CD1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1960,7 +1978,7 @@
         <v>1427</v>
       </c>
       <c r="D14" s="7">
-        <v>1456509</v>
+        <v>1456508</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2011,7 +2029,7 @@
         <v>3172</v>
       </c>
       <c r="D15" s="7">
-        <v>3232604</v>
+        <v>3232603</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2074,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7D2624-A622-4090-A7F3-8D5B0111E086}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65B3F7F-5215-4BAC-A3AF-82B36B0F453D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2690,7 +2708,7 @@
         <v>2546</v>
       </c>
       <c r="N13" s="7">
-        <v>2727069</v>
+        <v>2727070</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>149</v>
@@ -2792,7 +2810,7 @@
         <v>6290</v>
       </c>
       <c r="N15" s="7">
-        <v>6749640</v>
+        <v>6749641</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2825,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF4A0CF-5991-400C-9124-AEDF80A7C6D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846305B5-CD51-4782-8E3F-418C728E3106}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3027,7 +3045,7 @@
         <v>1172</v>
       </c>
       <c r="N5" s="7">
-        <v>1257518</v>
+        <v>1257519</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>106</v>
@@ -3078,7 +3096,7 @@
         <v>1620</v>
       </c>
       <c r="N6" s="7">
-        <v>1714804</v>
+        <v>1714805</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3462,7 +3480,7 @@
         <v>1347</v>
       </c>
       <c r="D14" s="7">
-        <v>1402508</v>
+        <v>1402507</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>217</v>
@@ -3513,7 +3531,7 @@
         <v>3114</v>
       </c>
       <c r="D15" s="7">
-        <v>3270814</v>
+        <v>3270813</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3576,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F28614A-A675-44FD-AEBA-41E3FEDDA832}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC017ABB-BB45-405C-A18D-DFE95F165259}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3697,7 +3715,7 @@
         <v>315</v>
       </c>
       <c r="D4" s="7">
-        <v>255445</v>
+        <v>243958</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>227</v>
@@ -3712,7 +3730,7 @@
         <v>123</v>
       </c>
       <c r="I4" s="7">
-        <v>74419</v>
+        <v>67333</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>230</v>
@@ -3727,7 +3745,7 @@
         <v>438</v>
       </c>
       <c r="N4" s="7">
-        <v>329864</v>
+        <v>311290</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>233</v>
@@ -3748,7 +3766,7 @@
         <v>374</v>
       </c>
       <c r="D5" s="7">
-        <v>283923</v>
+        <v>268781</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>236</v>
@@ -3763,7 +3781,7 @@
         <v>1300</v>
       </c>
       <c r="I5" s="7">
-        <v>756773</v>
+        <v>684000</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>239</v>
@@ -3778,7 +3796,7 @@
         <v>1674</v>
       </c>
       <c r="N5" s="7">
-        <v>1040697</v>
+        <v>952782</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>242</v>
@@ -3799,7 +3817,7 @@
         <v>689</v>
       </c>
       <c r="D6" s="7">
-        <v>539368</v>
+        <v>512739</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3814,7 +3832,7 @@
         <v>1423</v>
       </c>
       <c r="I6" s="7">
-        <v>831192</v>
+        <v>751333</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3829,7 +3847,7 @@
         <v>2112</v>
       </c>
       <c r="N6" s="7">
-        <v>1370561</v>
+        <v>1264072</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3852,7 +3870,7 @@
         <v>918</v>
       </c>
       <c r="D7" s="7">
-        <v>1005885</v>
+        <v>985825</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>245</v>
@@ -3867,7 +3885,7 @@
         <v>720</v>
       </c>
       <c r="I7" s="7">
-        <v>656978</v>
+        <v>709850</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>248</v>
@@ -3882,16 +3900,16 @@
         <v>1638</v>
       </c>
       <c r="N7" s="7">
-        <v>1662864</v>
+        <v>1695675</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>42</v>
+        <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,46 +3921,46 @@
         <v>1069</v>
       </c>
       <c r="D8" s="7">
-        <v>1151496</v>
+        <v>1300098</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>2195</v>
       </c>
       <c r="I8" s="7">
-        <v>1588659</v>
+        <v>1524493</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M8" s="7">
         <v>3264</v>
       </c>
       <c r="N8" s="7">
-        <v>2740154</v>
+        <v>2824591</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>34</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,7 +3972,7 @@
         <v>1987</v>
       </c>
       <c r="D9" s="7">
-        <v>2157381</v>
+        <v>2285923</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3969,7 +3987,7 @@
         <v>2915</v>
       </c>
       <c r="I9" s="7">
-        <v>2245637</v>
+        <v>2234343</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3984,7 +4002,7 @@
         <v>4902</v>
       </c>
       <c r="N9" s="7">
-        <v>4403018</v>
+        <v>4520266</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4007,46 +4025,46 @@
         <v>347</v>
       </c>
       <c r="D10" s="7">
-        <v>350586</v>
+        <v>344253</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>21</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>359</v>
       </c>
       <c r="I10" s="7">
-        <v>261738</v>
+        <v>246303</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>37</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>706</v>
       </c>
       <c r="N10" s="7">
-        <v>612324</v>
+        <v>590556</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,46 +4076,46 @@
         <v>334</v>
       </c>
       <c r="D11" s="7">
-        <v>322453</v>
+        <v>302370</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>642</v>
       </c>
       <c r="I11" s="7">
-        <v>449560</v>
+        <v>412005</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>45</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>976</v>
       </c>
       <c r="N11" s="7">
-        <v>772013</v>
+        <v>714375</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>193</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,7 +4127,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4124,7 +4142,7 @@
         <v>1001</v>
       </c>
       <c r="I12" s="7">
-        <v>711298</v>
+        <v>658308</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4139,7 +4157,7 @@
         <v>1682</v>
       </c>
       <c r="N12" s="7">
-        <v>1384337</v>
+        <v>1304931</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4162,46 +4180,46 @@
         <v>1580</v>
       </c>
       <c r="D13" s="7">
-        <v>1611916</v>
+        <v>1574035</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>1202</v>
       </c>
       <c r="I13" s="7">
-        <v>993135</v>
+        <v>1023486</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>2782</v>
       </c>
       <c r="N13" s="7">
-        <v>2605052</v>
+        <v>2597521</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>281</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,46 +4231,46 @@
         <v>1777</v>
       </c>
       <c r="D14" s="7">
-        <v>1757872</v>
+        <v>1871250</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7">
         <v>4137</v>
       </c>
       <c r="I14" s="7">
-        <v>2794992</v>
+        <v>2620498</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>5914</v>
       </c>
       <c r="N14" s="7">
-        <v>4552864</v>
+        <v>4491748</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>289</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,7 +4282,7 @@
         <v>3357</v>
       </c>
       <c r="D15" s="7">
-        <v>3369788</v>
+        <v>3445285</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4279,7 +4297,7 @@
         <v>5339</v>
       </c>
       <c r="I15" s="7">
-        <v>3788127</v>
+        <v>3643984</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4294,7 +4312,7 @@
         <v>8696</v>
       </c>
       <c r="N15" s="7">
-        <v>7157916</v>
+        <v>7089269</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
